--- a/data/pca/factorExposure/factorExposure_2009-03-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-03-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01658932506584527</v>
+        <v>-0.01611961874410785</v>
       </c>
       <c r="C2">
-        <v>0.00213167180753448</v>
+        <v>0.001536503318702835</v>
       </c>
       <c r="D2">
-        <v>0.007593334701889705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008954383746196641</v>
+      </c>
+      <c r="E2">
+        <v>-0.01921501796599336</v>
+      </c>
+      <c r="F2">
+        <v>0.005900289857627619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08327775527956086</v>
+        <v>-0.08654689506201393</v>
       </c>
       <c r="C4">
-        <v>0.02018749601701962</v>
+        <v>0.01604015080771454</v>
       </c>
       <c r="D4">
-        <v>0.08454545246196039</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08839088409012005</v>
+      </c>
+      <c r="E4">
+        <v>0.05014599611680385</v>
+      </c>
+      <c r="F4">
+        <v>-0.01514345512404274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.001190137202840862</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0001697074835641692</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.001198299110363115</v>
+      </c>
+      <c r="E5">
+        <v>0.001761727817664401</v>
+      </c>
+      <c r="F5">
+        <v>0.003189875099874809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1638028642330508</v>
+        <v>-0.1685618146953314</v>
       </c>
       <c r="C6">
-        <v>0.03990801651076018</v>
+        <v>0.0371540287130721</v>
       </c>
       <c r="D6">
-        <v>-0.01735049151605416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.008498317519820246</v>
+      </c>
+      <c r="E6">
+        <v>0.06118666187669399</v>
+      </c>
+      <c r="F6">
+        <v>-0.004311238676106313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05473711342966498</v>
+        <v>-0.05925732285172835</v>
       </c>
       <c r="C7">
-        <v>0.001699002463847384</v>
+        <v>-0.001110381938207227</v>
       </c>
       <c r="D7">
-        <v>0.04994299698636279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05450020718530103</v>
+      </c>
+      <c r="E7">
+        <v>0.02977437887795807</v>
+      </c>
+      <c r="F7">
+        <v>-0.05664338155338474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05868954041250921</v>
+        <v>-0.05478665689313954</v>
       </c>
       <c r="C8">
-        <v>-0.00901635706602962</v>
+        <v>-0.0107261721232641</v>
       </c>
       <c r="D8">
-        <v>0.03608411955985083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03794126231856926</v>
+      </c>
+      <c r="E8">
+        <v>-0.02293569702056841</v>
+      </c>
+      <c r="F8">
+        <v>0.0211818330405262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06367102640549328</v>
+        <v>-0.06713802540413077</v>
       </c>
       <c r="C9">
-        <v>0.01539670953521011</v>
+        <v>0.01136121171546112</v>
       </c>
       <c r="D9">
-        <v>0.08884281597425771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.09173969945551254</v>
+      </c>
+      <c r="E9">
+        <v>0.06613046706846316</v>
+      </c>
+      <c r="F9">
+        <v>-0.02249689652051112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09716676202637686</v>
+        <v>-0.09333439787000671</v>
       </c>
       <c r="C10">
-        <v>0.02550976545449199</v>
+        <v>0.02635706111531107</v>
       </c>
       <c r="D10">
-        <v>-0.1620781857604573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1526024156523584</v>
+      </c>
+      <c r="E10">
+        <v>-0.09009128905007645</v>
+      </c>
+      <c r="F10">
+        <v>0.007925521501610713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08518517522196913</v>
+        <v>-0.08277779439798474</v>
       </c>
       <c r="C11">
-        <v>0.0175823933668955</v>
+        <v>0.01253970245689292</v>
       </c>
       <c r="D11">
-        <v>0.1379588709320322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1373249926756396</v>
+      </c>
+      <c r="E11">
+        <v>0.03504820505274849</v>
+      </c>
+      <c r="F11">
+        <v>0.006369031516796021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.08967222283339825</v>
+        <v>-0.08494570369799256</v>
       </c>
       <c r="C12">
-        <v>0.0152551046229039</v>
+        <v>0.009652528800387961</v>
       </c>
       <c r="D12">
-        <v>0.1478053673548569</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1513988031161664</v>
+      </c>
+      <c r="E12">
+        <v>0.03329019726833753</v>
+      </c>
+      <c r="F12">
+        <v>-0.00673373992142209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04235480058626775</v>
+        <v>-0.04249062919978883</v>
       </c>
       <c r="C13">
-        <v>0.007794288683845347</v>
+        <v>0.003834260126154988</v>
       </c>
       <c r="D13">
-        <v>0.05480749795432868</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06099172459591741</v>
+      </c>
+      <c r="E13">
+        <v>0.003353379665381497</v>
+      </c>
+      <c r="F13">
+        <v>-0.01690842014081244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.0205312335906334</v>
+        <v>-0.02287405308060468</v>
       </c>
       <c r="C14">
-        <v>0.01528783544461769</v>
+        <v>0.01413006153189894</v>
       </c>
       <c r="D14">
-        <v>0.04067169406215684</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.04256638701321539</v>
+      </c>
+      <c r="E14">
+        <v>0.02858378272361475</v>
+      </c>
+      <c r="F14">
+        <v>-0.001055872291091368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03118831091172643</v>
+        <v>-0.0331157689967574</v>
       </c>
       <c r="C15">
-        <v>0.008113774198590051</v>
+        <v>0.006478382495334874</v>
       </c>
       <c r="D15">
-        <v>0.0537397010679821</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.05369505171389045</v>
+      </c>
+      <c r="E15">
+        <v>0.02448648167077452</v>
+      </c>
+      <c r="F15">
+        <v>-0.01512725509541191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06537461989294906</v>
+        <v>-0.0651338291809974</v>
       </c>
       <c r="C16">
-        <v>0.00586022082745974</v>
+        <v>0.001000785305944149</v>
       </c>
       <c r="D16">
-        <v>0.1420171799043738</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1443135922637131</v>
+      </c>
+      <c r="E16">
+        <v>0.04398903585670771</v>
+      </c>
+      <c r="F16">
+        <v>0.01177302003864574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.002997638397405635</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001241548252822573</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002917565678292673</v>
+      </c>
+      <c r="E17">
+        <v>0.0002614309160462804</v>
+      </c>
+      <c r="F17">
+        <v>0.007562606792343596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.03313169801236321</v>
+        <v>-0.04792534405004931</v>
       </c>
       <c r="C18">
-        <v>0.0004469403296745541</v>
+        <v>0.0008626491725625522</v>
       </c>
       <c r="D18">
-        <v>0.03408420544433621</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0286485451931543</v>
+      </c>
+      <c r="E18">
+        <v>-0.01877362006908385</v>
+      </c>
+      <c r="F18">
+        <v>-2.020857736321731e-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06168869575115701</v>
+        <v>-0.06120988689099183</v>
       </c>
       <c r="C20">
-        <v>0.005371086045002253</v>
+        <v>0.002504778153600297</v>
       </c>
       <c r="D20">
-        <v>0.09595447625939339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09553912995122318</v>
+      </c>
+      <c r="E20">
+        <v>0.06132022206693547</v>
+      </c>
+      <c r="F20">
+        <v>0.007005165353546962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04214386492309991</v>
+        <v>-0.04384659474619117</v>
       </c>
       <c r="C21">
-        <v>0.01110893383912669</v>
+        <v>0.008469744707773808</v>
       </c>
       <c r="D21">
-        <v>0.04796883843905773</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.04872183205110783</v>
+      </c>
+      <c r="E21">
+        <v>-0.01856130543293583</v>
+      </c>
+      <c r="F21">
+        <v>-0.006389452794132898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04644478771892923</v>
+        <v>-0.04446499753747496</v>
       </c>
       <c r="C22">
-        <v>0.005397561154178269</v>
+        <v>0.002921791368250381</v>
       </c>
       <c r="D22">
-        <v>0.01180180279435783</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.01666556768368008</v>
+      </c>
+      <c r="E22">
+        <v>-0.03942392420124462</v>
+      </c>
+      <c r="F22">
+        <v>0.1285560415265818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04645380219172197</v>
+        <v>-0.04447270885522243</v>
       </c>
       <c r="C23">
-        <v>0.005400176698232811</v>
+        <v>0.002924157280433238</v>
       </c>
       <c r="D23">
-        <v>0.01179438021388972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.01665957389800789</v>
+      </c>
+      <c r="E23">
+        <v>-0.03944613711261646</v>
+      </c>
+      <c r="F23">
+        <v>0.1285965680859589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07235979586717155</v>
+        <v>-0.07130671510086824</v>
       </c>
       <c r="C24">
-        <v>0.006623578596056006</v>
+        <v>0.002151638578695845</v>
       </c>
       <c r="D24">
-        <v>0.1363126642784214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1355880511135879</v>
+      </c>
+      <c r="E24">
+        <v>0.03834426541792275</v>
+      </c>
+      <c r="F24">
+        <v>-0.005468410830556767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07910544512790357</v>
+        <v>-0.07681177742648398</v>
       </c>
       <c r="C25">
-        <v>0.009717021993220245</v>
+        <v>0.005272650871710452</v>
       </c>
       <c r="D25">
-        <v>0.1276919563722654</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1264709454748355</v>
+      </c>
+      <c r="E25">
+        <v>0.02318814961212295</v>
+      </c>
+      <c r="F25">
+        <v>-0.02102487084943558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05816469881050156</v>
+        <v>-0.06180512931114516</v>
       </c>
       <c r="C26">
-        <v>0.01926363439374007</v>
+        <v>0.01641878479840015</v>
       </c>
       <c r="D26">
-        <v>0.06628609049213298</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06692845353683344</v>
+      </c>
+      <c r="E26">
+        <v>0.002945576507696179</v>
+      </c>
+      <c r="F26">
+        <v>0.008230361564873195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1567609719584632</v>
+        <v>-0.1613866781151226</v>
       </c>
       <c r="C28">
-        <v>0.03173763523911899</v>
+        <v>0.03405700263757349</v>
       </c>
       <c r="D28">
-        <v>-0.2455898515070904</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.242659054112381</v>
+      </c>
+      <c r="E28">
+        <v>-0.02501522905669113</v>
+      </c>
+      <c r="F28">
+        <v>-0.04601863298701638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02554165592762159</v>
+        <v>-0.02761980188899323</v>
       </c>
       <c r="C29">
-        <v>0.01004283432560426</v>
+        <v>0.009432217171427395</v>
       </c>
       <c r="D29">
-        <v>0.03872624124945617</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03897874405683385</v>
+      </c>
+      <c r="E29">
+        <v>-0.006211783916703052</v>
+      </c>
+      <c r="F29">
+        <v>0.0212772850017565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04496293036119999</v>
+        <v>-0.04582626292064245</v>
       </c>
       <c r="C30">
-        <v>0.004707937554512027</v>
+        <v>0.001404841519104095</v>
       </c>
       <c r="D30">
-        <v>0.07729907625846591</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08204695284306152</v>
+      </c>
+      <c r="E30">
+        <v>0.08473872687113175</v>
+      </c>
+      <c r="F30">
+        <v>-0.07124414110246878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05252066071293328</v>
+        <v>-0.05228447571466369</v>
       </c>
       <c r="C31">
-        <v>0.01995777816510331</v>
+        <v>0.01759885938513086</v>
       </c>
       <c r="D31">
-        <v>0.03192581702619349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03500074035918554</v>
+      </c>
+      <c r="E31">
+        <v>0.009627646887071021</v>
+      </c>
+      <c r="F31">
+        <v>0.03086182626213256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04466438822157812</v>
+        <v>-0.04952901994101244</v>
       </c>
       <c r="C32">
-        <v>0.001609094950559217</v>
+        <v>-0.001106721718091363</v>
       </c>
       <c r="D32">
-        <v>0.04049343514949467</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03999847288317317</v>
+      </c>
+      <c r="E32">
+        <v>0.01285555207934967</v>
+      </c>
+      <c r="F32">
+        <v>0.02238878667632223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08261359437255696</v>
+        <v>-0.08512302594725188</v>
       </c>
       <c r="C33">
-        <v>0.01356040652951291</v>
+        <v>0.008394113456323586</v>
       </c>
       <c r="D33">
-        <v>0.1057390965049617</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1137035251280071</v>
+      </c>
+      <c r="E33">
+        <v>0.04405550332220844</v>
+      </c>
+      <c r="F33">
+        <v>0.009080637702296498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06029125031986073</v>
+        <v>-0.06019039662823965</v>
       </c>
       <c r="C34">
-        <v>0.01470569137669097</v>
+        <v>0.01002153131116015</v>
       </c>
       <c r="D34">
-        <v>0.1183954713094802</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1222799545335882</v>
+      </c>
+      <c r="E34">
+        <v>0.03705181002646017</v>
+      </c>
+      <c r="F34">
+        <v>-0.02748226709599059</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02715740839021581</v>
+        <v>-0.02803421182866508</v>
       </c>
       <c r="C35">
-        <v>0.005382120267258801</v>
+        <v>0.00454568083880484</v>
       </c>
       <c r="D35">
-        <v>0.01373298512750425</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01553523004233698</v>
+      </c>
+      <c r="E35">
+        <v>0.01006930830194267</v>
+      </c>
+      <c r="F35">
+        <v>0.01786416998237677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02474627343938896</v>
+        <v>-0.02842590125632079</v>
       </c>
       <c r="C36">
-        <v>0.009303981656150952</v>
+        <v>0.008132551653120995</v>
       </c>
       <c r="D36">
-        <v>0.04852836529488565</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04987932965349943</v>
+      </c>
+      <c r="E36">
+        <v>0.03802989718288539</v>
+      </c>
+      <c r="F36">
+        <v>0.01354143023594089</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.00339389050625446</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007839503284551221</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003807202849044413</v>
+      </c>
+      <c r="E37">
+        <v>-0.001643631242920436</v>
+      </c>
+      <c r="F37">
+        <v>0.0001163845859408889</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09220553130155226</v>
+        <v>-0.08576791200204635</v>
       </c>
       <c r="C39">
-        <v>0.02018022351417935</v>
+        <v>0.01458536666032775</v>
       </c>
       <c r="D39">
-        <v>0.1661054691080043</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1614512223781326</v>
+      </c>
+      <c r="E39">
+        <v>0.02555710946946497</v>
+      </c>
+      <c r="F39">
+        <v>0.007467282405468159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04355883454637642</v>
+        <v>-0.04914016760528839</v>
       </c>
       <c r="C40">
-        <v>0.01261786285455337</v>
+        <v>0.01074759701707756</v>
       </c>
       <c r="D40">
-        <v>0.04499113343872062</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04978227401195477</v>
+      </c>
+      <c r="E40">
+        <v>-0.0205750303634223</v>
+      </c>
+      <c r="F40">
+        <v>-0.002598944497819161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02761805912924855</v>
+        <v>-0.02935513372502397</v>
       </c>
       <c r="C41">
-        <v>0.008828564217587093</v>
+        <v>0.008120676016646441</v>
       </c>
       <c r="D41">
-        <v>0.02055199289647296</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02190300393026061</v>
+      </c>
+      <c r="E41">
+        <v>-0.007685571799432581</v>
+      </c>
+      <c r="F41">
+        <v>0.005877836057717907</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0422445254234094</v>
+        <v>-0.04100031999803044</v>
       </c>
       <c r="C43">
-        <v>0.009914526951488662</v>
+        <v>0.008798177395050516</v>
       </c>
       <c r="D43">
-        <v>0.03145687545257619</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03155760619367694</v>
+      </c>
+      <c r="E43">
+        <v>-0.006896632292624878</v>
+      </c>
+      <c r="F43">
+        <v>0.02489327154016251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.05576950407037901</v>
+        <v>-0.06435879809305015</v>
       </c>
       <c r="C44">
-        <v>0.02096308678161125</v>
+        <v>0.01823814442462901</v>
       </c>
       <c r="D44">
-        <v>0.08573945687166085</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09001240835237212</v>
+      </c>
+      <c r="E44">
+        <v>0.2222739360356734</v>
+      </c>
+      <c r="F44">
+        <v>-0.08131994157871621</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0002254980781679199</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3.816560740444836e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>2.82764113563495e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0005421796229036555</v>
+      </c>
+      <c r="F45">
+        <v>-0.0002782395959781198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02503381518707324</v>
+        <v>-0.02624133674334267</v>
       </c>
       <c r="C46">
-        <v>0.00541318559109148</v>
+        <v>0.004468566019073502</v>
       </c>
       <c r="D46">
-        <v>0.02510974826842303</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02603567703726521</v>
+      </c>
+      <c r="E46">
+        <v>-0.003536910076028966</v>
+      </c>
+      <c r="F46">
+        <v>0.03188014699631564</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05364824212343772</v>
+        <v>-0.05281786074100856</v>
       </c>
       <c r="C47">
-        <v>0.007709282404304117</v>
+        <v>0.005854387877166386</v>
       </c>
       <c r="D47">
-        <v>0.02047383202174545</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02255969751506212</v>
+      </c>
+      <c r="E47">
+        <v>-0.01245169579640431</v>
+      </c>
+      <c r="F47">
+        <v>0.05518235223938624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04929158103390477</v>
+        <v>-0.05262627024053633</v>
       </c>
       <c r="C48">
-        <v>0.0066711790850789</v>
+        <v>0.004184934487837248</v>
       </c>
       <c r="D48">
-        <v>0.06569971932226702</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.06376343704040911</v>
+      </c>
+      <c r="E48">
+        <v>0.004884481930084449</v>
+      </c>
+      <c r="F48">
+        <v>-0.02163913577654546</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1956325762197661</v>
+        <v>-0.1983191633953151</v>
       </c>
       <c r="C49">
-        <v>0.03095835859671778</v>
+        <v>0.02640224102077833</v>
       </c>
       <c r="D49">
-        <v>-0.006265667374593054</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.0007769085753695777</v>
+      </c>
+      <c r="E49">
+        <v>0.04791488963539862</v>
+      </c>
+      <c r="F49">
+        <v>-0.04058789034628708</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05021552640378887</v>
+        <v>-0.05238307055917686</v>
       </c>
       <c r="C50">
-        <v>0.01525681884072941</v>
+        <v>0.01358586829401027</v>
       </c>
       <c r="D50">
-        <v>0.03035299533681213</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03249935547488923</v>
+      </c>
+      <c r="E50">
+        <v>0.02048107122719545</v>
+      </c>
+      <c r="F50">
+        <v>0.01827551925424189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1472214455411464</v>
+        <v>-0.1411131598661734</v>
       </c>
       <c r="C52">
-        <v>0.02618509916261868</v>
+        <v>0.02205103554531124</v>
       </c>
       <c r="D52">
-        <v>0.04040257162374625</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04314746164052235</v>
+      </c>
+      <c r="E52">
+        <v>0.05798598693123107</v>
+      </c>
+      <c r="F52">
+        <v>0.01997436954691763</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1769434178235966</v>
+        <v>-0.1688599792756259</v>
       </c>
       <c r="C53">
-        <v>0.03150272728938534</v>
+        <v>0.027716748670365</v>
       </c>
       <c r="D53">
-        <v>0.01024583159126615</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01400814574511044</v>
+      </c>
+      <c r="E53">
+        <v>0.115603389320668</v>
+      </c>
+      <c r="F53">
+        <v>0.007492333903748792</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01343536391861699</v>
+        <v>-0.01641891767171854</v>
       </c>
       <c r="C54">
-        <v>0.01163564648658111</v>
+        <v>0.01095439447002501</v>
       </c>
       <c r="D54">
-        <v>0.03369321345800638</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03299458499622985</v>
+      </c>
+      <c r="E54">
+        <v>0.005529909096382716</v>
+      </c>
+      <c r="F54">
+        <v>0.01428109667207774</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1205216651705468</v>
+        <v>-0.1177302403457252</v>
       </c>
       <c r="C55">
-        <v>0.02662427683384105</v>
+        <v>0.02364255565746804</v>
       </c>
       <c r="D55">
-        <v>0.01161769946262578</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01856100294212303</v>
+      </c>
+      <c r="E55">
+        <v>0.06844232836438754</v>
+      </c>
+      <c r="F55">
+        <v>0.04251823321263341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1812728029421537</v>
+        <v>-0.1749712180839634</v>
       </c>
       <c r="C56">
-        <v>0.02911161661304259</v>
+        <v>0.02575312931093332</v>
       </c>
       <c r="D56">
-        <v>-0.0004163363320293234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002395973125422579</v>
+      </c>
+      <c r="E56">
+        <v>0.07481517186280236</v>
+      </c>
+      <c r="F56">
+        <v>0.03323512114160228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04601714115696213</v>
+        <v>-0.04577227588777435</v>
       </c>
       <c r="C58">
-        <v>0.004714570235114121</v>
+        <v>0.0005290034620463192</v>
       </c>
       <c r="D58">
-        <v>0.09195421515216091</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.09770811433640894</v>
+      </c>
+      <c r="E58">
+        <v>-0.01626699140638896</v>
+      </c>
+      <c r="F58">
+        <v>0.03812548575163374</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1750781923429092</v>
+        <v>-0.1797328293321828</v>
       </c>
       <c r="C59">
-        <v>0.0308251551839573</v>
+        <v>0.0326929391761633</v>
       </c>
       <c r="D59">
-        <v>-0.2062528546990791</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2053127235454166</v>
+      </c>
+      <c r="E59">
+        <v>-0.07655336354008506</v>
+      </c>
+      <c r="F59">
+        <v>0.009103588749408531</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.219857615166527</v>
+        <v>-0.2156479316913967</v>
       </c>
       <c r="C60">
-        <v>0.009781734473488216</v>
+        <v>0.005013562526085681</v>
       </c>
       <c r="D60">
-        <v>0.02097168416074748</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.02358103883379803</v>
+      </c>
+      <c r="E60">
+        <v>-0.005340337449841417</v>
+      </c>
+      <c r="F60">
+        <v>-0.00474831020414289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07106148321630557</v>
+        <v>-0.06731398406585634</v>
       </c>
       <c r="C61">
-        <v>0.01566816253225346</v>
+        <v>0.01075868822873258</v>
       </c>
       <c r="D61">
-        <v>0.1248319625950501</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1237670411992099</v>
+      </c>
+      <c r="E61">
+        <v>0.01183753116159061</v>
+      </c>
+      <c r="F61">
+        <v>0.01449390384021857</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1703422434989335</v>
+        <v>-0.166519673738518</v>
       </c>
       <c r="C62">
-        <v>0.03120065807421042</v>
+        <v>0.02760317186233877</v>
       </c>
       <c r="D62">
-        <v>0.008045969124609099</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.01178738819528176</v>
+      </c>
+      <c r="E62">
+        <v>0.06910899289548512</v>
+      </c>
+      <c r="F62">
+        <v>0.04315786657914848</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04177311668179057</v>
+        <v>-0.04657114630191028</v>
       </c>
       <c r="C63">
-        <v>0.005882341234758198</v>
+        <v>0.003555174979954392</v>
       </c>
       <c r="D63">
-        <v>0.07216202703972845</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07504863012955497</v>
+      </c>
+      <c r="E63">
+        <v>0.01195915504377657</v>
+      </c>
+      <c r="F63">
+        <v>0.02220324922037945</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1144072647348676</v>
+        <v>-0.1119085317676304</v>
       </c>
       <c r="C64">
-        <v>0.02099613262558907</v>
+        <v>0.01687462900103761</v>
       </c>
       <c r="D64">
-        <v>0.05371951380545475</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05893502660905158</v>
+      </c>
+      <c r="E64">
+        <v>0.03300735694972307</v>
+      </c>
+      <c r="F64">
+        <v>0.000324971624503265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1527026038714861</v>
+        <v>-0.157462536133988</v>
       </c>
       <c r="C65">
-        <v>0.04560106267156022</v>
+        <v>0.04351306233119256</v>
       </c>
       <c r="D65">
-        <v>-0.04602760008742618</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03668366566053763</v>
+      </c>
+      <c r="E65">
+        <v>0.06779085490963245</v>
+      </c>
+      <c r="F65">
+        <v>0.007728689041535772</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1125045249045284</v>
+        <v>-0.1045426993679269</v>
       </c>
       <c r="C66">
-        <v>0.01894864865623305</v>
+        <v>0.01269393709465335</v>
       </c>
       <c r="D66">
-        <v>0.1506544299891692</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1495082593245952</v>
+      </c>
+      <c r="E66">
+        <v>0.02911046851786678</v>
+      </c>
+      <c r="F66">
+        <v>0.006716431754523371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0587891615020032</v>
+        <v>-0.04973171894499871</v>
       </c>
       <c r="C67">
-        <v>0.006309183911300726</v>
+        <v>0.00367217906917214</v>
       </c>
       <c r="D67">
-        <v>0.06206796555091883</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0589533133925165</v>
+      </c>
+      <c r="E67">
+        <v>-0.05008037476966971</v>
+      </c>
+      <c r="F67">
+        <v>0.06847207696596264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1252909387015823</v>
+        <v>-0.1310137915235485</v>
       </c>
       <c r="C68">
-        <v>0.0387811106482455</v>
+        <v>0.04266840618700472</v>
       </c>
       <c r="D68">
-        <v>-0.2568421850854326</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2542707807688346</v>
+      </c>
+      <c r="E68">
+        <v>-0.03710893030989127</v>
+      </c>
+      <c r="F68">
+        <v>-0.07882179949306768</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03916745673387564</v>
+        <v>-0.03879838443668178</v>
       </c>
       <c r="C69">
-        <v>0.003651568045235605</v>
+        <v>0.002547565518462315</v>
       </c>
       <c r="D69">
-        <v>0.01000450639181437</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01154562057739753</v>
+      </c>
+      <c r="E69">
+        <v>0.01558107417595644</v>
+      </c>
+      <c r="F69">
+        <v>0.05207409651196761</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.07184528227331266</v>
+        <v>-0.07250476510712291</v>
       </c>
       <c r="C70">
-        <v>-0.02143156454953889</v>
+        <v>-0.02324028157750236</v>
       </c>
       <c r="D70">
-        <v>0.04969929688199008</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.04653205686690784</v>
+      </c>
+      <c r="E70">
+        <v>-0.3315192229472361</v>
+      </c>
+      <c r="F70">
+        <v>0.1723878581995862</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1464762248734772</v>
+        <v>-0.1531165133556276</v>
       </c>
       <c r="C71">
-        <v>0.0453262408916631</v>
+        <v>0.04870666727358458</v>
       </c>
       <c r="D71">
-        <v>-0.2670453223114593</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.261311101017253</v>
+      </c>
+      <c r="E71">
+        <v>-0.04302535050967861</v>
+      </c>
+      <c r="F71">
+        <v>-0.08730149808686863</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1400602815613314</v>
+        <v>-0.1463236775011077</v>
       </c>
       <c r="C72">
-        <v>0.03531823466901998</v>
+        <v>0.03352003169450045</v>
       </c>
       <c r="D72">
-        <v>0.01238797324126818</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01154141508435528</v>
+      </c>
+      <c r="E72">
+        <v>0.06403170267486508</v>
+      </c>
+      <c r="F72">
+        <v>0.03408020044427993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1928555548738203</v>
+        <v>-0.1993849567965568</v>
       </c>
       <c r="C73">
-        <v>0.02353343876022573</v>
+        <v>0.01779824667483837</v>
       </c>
       <c r="D73">
-        <v>0.01620735211806163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02448379145494449</v>
+      </c>
+      <c r="E73">
+        <v>0.06662178515946474</v>
+      </c>
+      <c r="F73">
+        <v>0.05597201986254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08944232010781654</v>
+        <v>-0.08911436295830495</v>
       </c>
       <c r="C74">
-        <v>0.01783237758265405</v>
+        <v>0.01554789084937098</v>
       </c>
       <c r="D74">
-        <v>0.01998855265715519</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02482249299565061</v>
+      </c>
+      <c r="E74">
+        <v>0.08070763420550491</v>
+      </c>
+      <c r="F74">
+        <v>0.01775073050424511</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1269488950822479</v>
+        <v>-0.1198742760873036</v>
       </c>
       <c r="C75">
-        <v>0.03587326429223049</v>
+        <v>0.03202321890402943</v>
       </c>
       <c r="D75">
-        <v>0.03115913922256353</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03502254626452207</v>
+      </c>
+      <c r="E75">
+        <v>0.06427315265218972</v>
+      </c>
+      <c r="F75">
+        <v>0.06233562476607297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07625905801271125</v>
+        <v>-0.09006822837207996</v>
       </c>
       <c r="C77">
-        <v>0.01493878064925739</v>
+        <v>0.01182178987406953</v>
       </c>
       <c r="D77">
-        <v>0.1256298067631906</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1227584032812033</v>
+      </c>
+      <c r="E77">
+        <v>0.04950275254986877</v>
+      </c>
+      <c r="F77">
+        <v>-0.01828546653812363</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09802656742067246</v>
+        <v>-0.100206228575177</v>
       </c>
       <c r="C78">
-        <v>0.04478512356157027</v>
+        <v>0.04132728048859372</v>
       </c>
       <c r="D78">
-        <v>0.1531386507269447</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1453348145360832</v>
+      </c>
+      <c r="E78">
+        <v>0.05395662626424372</v>
+      </c>
+      <c r="F78">
+        <v>-0.02916668634391456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1689001519325312</v>
+        <v>-0.1642257529701925</v>
       </c>
       <c r="C79">
-        <v>0.03453467871705986</v>
+        <v>0.03036399913446514</v>
       </c>
       <c r="D79">
-        <v>0.02188588501988505</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02492443738215347</v>
+      </c>
+      <c r="E79">
+        <v>0.03971252410995359</v>
+      </c>
+      <c r="F79">
+        <v>0.04066902276013259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0799108152713412</v>
+        <v>-0.07658824423202731</v>
       </c>
       <c r="C80">
-        <v>0.005140793221994046</v>
+        <v>0.002210547663396455</v>
       </c>
       <c r="D80">
-        <v>0.05416980000076645</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05375256111610463</v>
+      </c>
+      <c r="E80">
+        <v>-0.02036043018197797</v>
+      </c>
+      <c r="F80">
+        <v>0.04818950327768964</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1152678649965726</v>
+        <v>-0.1092809166468477</v>
       </c>
       <c r="C81">
-        <v>0.03723544891656227</v>
+        <v>0.0350592513917665</v>
       </c>
       <c r="D81">
-        <v>0.004660040861023482</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.009251772146750329</v>
+      </c>
+      <c r="E81">
+        <v>0.05069093172665984</v>
+      </c>
+      <c r="F81">
+        <v>0.06545163797281517</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1606271070130185</v>
+        <v>-0.1594191613882134</v>
       </c>
       <c r="C82">
-        <v>0.03422580524502611</v>
+        <v>0.03067387867901328</v>
       </c>
       <c r="D82">
-        <v>-0.006043924835277588</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0009356938997274776</v>
+      </c>
+      <c r="E82">
+        <v>0.1018389049630338</v>
+      </c>
+      <c r="F82">
+        <v>0.003466754798066451</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05602328647130198</v>
+        <v>-0.05185568718556947</v>
       </c>
       <c r="C83">
-        <v>0.006762859711192372</v>
+        <v>0.004407753040373887</v>
       </c>
       <c r="D83">
-        <v>0.04999826875017971</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04813180957825879</v>
+      </c>
+      <c r="E83">
+        <v>-0.02373892593143572</v>
+      </c>
+      <c r="F83">
+        <v>0.01016801563950798</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05296140989426596</v>
+        <v>-0.05006322365560247</v>
       </c>
       <c r="C84">
-        <v>0.01378562054380478</v>
+        <v>0.0111315364575857</v>
       </c>
       <c r="D84">
-        <v>0.07818329019738052</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07474834427224442</v>
+      </c>
+      <c r="E84">
+        <v>0.00648939213624048</v>
+      </c>
+      <c r="F84">
+        <v>0.003448489407778681</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1398653291739091</v>
+        <v>-0.1345880464275727</v>
       </c>
       <c r="C85">
-        <v>0.03765514957348009</v>
+        <v>0.03425131186448784</v>
       </c>
       <c r="D85">
-        <v>0.01409279133443961</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01810975286629532</v>
+      </c>
+      <c r="E85">
+        <v>0.08323269273430994</v>
+      </c>
+      <c r="F85">
+        <v>0.02035445806293749</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08426031513848972</v>
+        <v>-0.0807271862318252</v>
       </c>
       <c r="C86">
-        <v>-0.002331196334786251</v>
+        <v>-0.006678591787876286</v>
       </c>
       <c r="D86">
-        <v>0.06901305712330524</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07762951088547972</v>
+      </c>
+      <c r="E86">
+        <v>-0.5556160560857036</v>
+      </c>
+      <c r="F86">
+        <v>0.5905971185953833</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.0878681122769845</v>
+        <v>-0.08825771581680239</v>
       </c>
       <c r="C87">
-        <v>0.02886561116145758</v>
+        <v>0.02418749835752944</v>
       </c>
       <c r="D87">
-        <v>0.08472564408238552</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08506393464087755</v>
+      </c>
+      <c r="E87">
+        <v>0.0030351979630269</v>
+      </c>
+      <c r="F87">
+        <v>-0.1152726210272654</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06335653579290991</v>
+        <v>-0.06202565889630609</v>
       </c>
       <c r="C88">
-        <v>0.007732104019348774</v>
+        <v>0.005096495296934323</v>
       </c>
       <c r="D88">
-        <v>0.06330732259929768</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.06395094722171453</v>
+      </c>
+      <c r="E88">
+        <v>0.01513625634124209</v>
+      </c>
+      <c r="F88">
+        <v>0.01381945816005339</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.131900324354203</v>
+        <v>-0.1374784693615896</v>
       </c>
       <c r="C89">
-        <v>0.01828995121680278</v>
+        <v>0.02234931983512336</v>
       </c>
       <c r="D89">
-        <v>-0.2295866002770501</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2340322395362943</v>
+      </c>
+      <c r="E89">
+        <v>-0.04459437366057618</v>
+      </c>
+      <c r="F89">
+        <v>-0.08693010964231136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1582008844884477</v>
+        <v>-0.1681223330836944</v>
       </c>
       <c r="C90">
-        <v>0.04175444386472599</v>
+        <v>0.04581298872252743</v>
       </c>
       <c r="D90">
-        <v>-0.2557137728276814</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2573150114113154</v>
+      </c>
+      <c r="E90">
+        <v>-0.07146733271690911</v>
+      </c>
+      <c r="F90">
+        <v>-0.1173043854849281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1267695288954166</v>
+        <v>-0.1216152131492587</v>
       </c>
       <c r="C91">
-        <v>0.02843335728942837</v>
+        <v>0.02606427410373923</v>
       </c>
       <c r="D91">
-        <v>-0.01205474922371924</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.008336502451242383</v>
+      </c>
+      <c r="E91">
+        <v>0.03842059055630542</v>
+      </c>
+      <c r="F91">
+        <v>0.09649031031330708</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1562752952273575</v>
+        <v>-0.1593118675522392</v>
       </c>
       <c r="C92">
-        <v>0.03211794799751677</v>
+        <v>0.03594890586408334</v>
       </c>
       <c r="D92">
-        <v>-0.2832874167898659</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.290699926135269</v>
+      </c>
+      <c r="E92">
+        <v>-0.05423395399600051</v>
+      </c>
+      <c r="F92">
+        <v>-0.07497445824416353</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1617075100883695</v>
+        <v>-0.1709003595936381</v>
       </c>
       <c r="C93">
-        <v>0.03790131728445807</v>
+        <v>0.04080170191973337</v>
       </c>
       <c r="D93">
-        <v>-0.2459242421112456</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2483511844543493</v>
+      </c>
+      <c r="E93">
+        <v>-0.02960254733109711</v>
+      </c>
+      <c r="F93">
+        <v>-0.05772217285414542</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1240371894714797</v>
+        <v>-0.1178322055884072</v>
       </c>
       <c r="C94">
-        <v>0.03101667266433817</v>
+        <v>0.02700004184445023</v>
       </c>
       <c r="D94">
-        <v>0.04579936118685325</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04811037670002714</v>
+      </c>
+      <c r="E94">
+        <v>0.06222324957859054</v>
+      </c>
+      <c r="F94">
+        <v>0.06151864684646768</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1258440102374239</v>
+        <v>-0.128182096737455</v>
       </c>
       <c r="C95">
-        <v>0.01413481756942849</v>
+        <v>0.008519525718549645</v>
       </c>
       <c r="D95">
-        <v>0.1131537630396297</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.119219776332632</v>
+      </c>
+      <c r="E95">
+        <v>0.01462933551743813</v>
+      </c>
+      <c r="F95">
+        <v>0.03770622672154701</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.175119274264918</v>
+        <v>-0.1557367350778568</v>
       </c>
       <c r="C96">
-        <v>-0.978839564533367</v>
+        <v>-0.9811809309621808</v>
       </c>
       <c r="D96">
-        <v>-0.03213589162361041</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05275428344249011</v>
+      </c>
+      <c r="E96">
+        <v>0.06392247382547643</v>
+      </c>
+      <c r="F96">
+        <v>0.01037354071222611</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1916479967192867</v>
+        <v>-0.1943771738081508</v>
       </c>
       <c r="C97">
-        <v>0.006929657045692698</v>
+        <v>0.00205969867287005</v>
       </c>
       <c r="D97">
-        <v>-0.01828113419087051</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01487272998272992</v>
+      </c>
+      <c r="E97">
+        <v>-0.1363709360058092</v>
+      </c>
+      <c r="F97">
+        <v>0.1030741579149452</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1900084729642894</v>
+        <v>-0.1973918239440654</v>
       </c>
       <c r="C98">
-        <v>0.01867186142261636</v>
+        <v>0.01326024748842716</v>
       </c>
       <c r="D98">
-        <v>-0.005612651332565906</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0001077525620644182</v>
+      </c>
+      <c r="E98">
+        <v>-0.1315059488711631</v>
+      </c>
+      <c r="F98">
+        <v>-0.05598991544079375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05623034951760442</v>
+        <v>-0.05576290831605618</v>
       </c>
       <c r="C99">
-        <v>-0.0006851361249304171</v>
+        <v>-0.002837615589406952</v>
       </c>
       <c r="D99">
-        <v>0.05430957517848238</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.05567376660465729</v>
+      </c>
+      <c r="E99">
+        <v>0.005908044718347018</v>
+      </c>
+      <c r="F99">
+        <v>0.004841911758047957</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1211096994259986</v>
+        <v>-0.1125836274377471</v>
       </c>
       <c r="C100">
-        <v>-0.03265039488186761</v>
+        <v>-0.0400883612684236</v>
       </c>
       <c r="D100">
-        <v>0.308500192264176</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.2934462943251668</v>
+      </c>
+      <c r="E100">
+        <v>-0.5696783807477359</v>
+      </c>
+      <c r="F100">
+        <v>-0.6618201937992069</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02547380858523054</v>
+        <v>-0.02761375172954053</v>
       </c>
       <c r="C101">
-        <v>0.01005210967283646</v>
+        <v>0.009465910286702243</v>
       </c>
       <c r="D101">
-        <v>0.03826313724760232</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03854146373867483</v>
+      </c>
+      <c r="E101">
+        <v>-0.008545623678122023</v>
+      </c>
+      <c r="F101">
+        <v>0.02252586315679763</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
